--- a/biology/Zoologie/Gorgasia_preclara/Gorgasia_preclara.xlsx
+++ b/biology/Zoologie/Gorgasia_preclara/Gorgasia_preclara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gorgasia preclara, communément nommé Hétérocongre splendide ou Anguille tubicole splendide[réf. nécessaire], est une espèce de poissons anguilliformes de la famille des congridés et un représentant des hétérocongres ou anguille tubicole.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gorgasia preclara se rencontre dans les eaux tropicales de la zone Indo-Ouest Pacifique soit des côtes de l'archipel des Maldives à la Papouasie-Nouvelle-Guinée et de l'archipel japonais des Ryukyu pour la limite Nord et les Philippines pour le sud[1]. Ce poisson est présent dans les zones sablonneuses exposées aux courants à une profondeur comprise entre 18 et 75 m[2] mais elle est habituellement observée à une profondeur moyenne de 30 m[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gorgasia preclara se rencontre dans les eaux tropicales de la zone Indo-Ouest Pacifique soit des côtes de l'archipel des Maldives à la Papouasie-Nouvelle-Guinée et de l'archipel japonais des Ryukyu pour la limite Nord et les Philippines pour le sud. Ce poisson est présent dans les zones sablonneuses exposées aux courants à une profondeur comprise entre 18 et 75 m mais elle est habituellement observée à une profondeur moyenne de 30 m.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gorgasia preclara est un poisson de taille moyenne pouvant atteindre 40 cm de long[4]. Son corps circulaire présente un diamètre d'environ 10 mm[5]. Sa coloration est jaune à orange avec des bandes blanches caractéristiques.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gorgasia preclara est un poisson de taille moyenne pouvant atteindre 40 cm de long. Son corps circulaire présente un diamètre d'environ 10 mm. Sa coloration est jaune à orange avec des bandes blanches caractéristiques.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gorgasia preclara vit dans un tube enfoui dans le sable soit en solitaire ou soit en petits groupes[5], ce poisson se nourrit du plancton dérivant[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gorgasia preclara vit dans un tube enfoui dans le sable soit en solitaire ou soit en petits groupes, ce poisson se nourrit du plancton dérivant.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Gorgasia preclara Böhlke (d) &amp; Randall, 1981[7],[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Gorgasia preclara Böhlke (d) &amp; Randall, 1981,.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du latin preclara, « magnifique, splendide », fait référence au très beau motif de cette espèce[8],[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du latin preclara, « magnifique, splendide », fait référence au très beau motif de cette espèce,.
 </t>
         </is>
       </c>
@@ -666,7 +688,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) J.E. Böhlke et J.E. Randall, « Four new garden eels (Congridae, Heterocongrinae) from the Pacific and Indian oceans », Bulletin of Marine Science, États-Unis, vol. 31, no 2,‎ avril 1981, p. 366-382 (ISSN 1553-6955, lire en ligne, consulté le 6 juillet 2023).</t>
         </is>
